--- a/TAP_POM_Framework/data/TC0004.xlsx
+++ b/TAP_POM_Framework/data/TC0004.xlsx
@@ -39,21 +39,12 @@
     <t>email</t>
   </si>
   <si>
-    <t>Thales Lori</t>
-  </si>
-  <si>
-    <t>https://www.thales.com</t>
-  </si>
-  <si>
     <t>abi</t>
   </si>
   <si>
     <t>anu</t>
   </si>
   <si>
-    <t>moni@ltts.com</t>
-  </si>
-  <si>
     <t>mon@ltts.com</t>
   </si>
   <si>
@@ -64,6 +55,15 @@
   </si>
   <si>
     <t>Email doesn't match</t>
+  </si>
+  <si>
+    <t>Thales LA</t>
+  </si>
+  <si>
+    <t>https://www.thales.la</t>
+  </si>
+  <si>
+    <t>abii@thalesla.com</t>
   </si>
 </sst>
 </file>
@@ -395,7 +395,7 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -405,6 +405,7 @@
     <col min="3" max="3" width="24.7109375" customWidth="1"/>
     <col min="6" max="6" width="26.5703125" customWidth="1"/>
     <col min="7" max="7" width="17.42578125" customWidth="1"/>
+    <col min="8" max="8" width="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -427,36 +428,36 @@
         <v>5</v>
       </c>
       <c r="G1" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="H1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>7896541236</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" t="s">
         <v>11</v>
-      </c>
-      <c r="H2" t="s">
-        <v>14</v>
       </c>
     </row>
   </sheetData>
